--- a/Documentatie/SRS/SRS VerzamelwoedeV2.xlsx
+++ b/Documentatie/SRS/SRS VerzamelwoedeV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4d422095765d3ac/Documenten/GitHub/VerzamelwoedV2/Documentatie/SRS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayre\OneDrive\Documenten\GitHub\VerzamelwoedV2\Documentatie\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{4DF9BFFD-894B-466C-99CA-5AC14D68F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53CD60-4594-4DEF-BDFF-A6EC715E4ABF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881183D9-F3CF-4FA0-AEBC-54FE8C24A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A244B4FE-6F16-4F5F-A8A3-E9CA61357B51}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>De gebruiker moet items kunnen verwijderen.</t>
-  </si>
-  <si>
-    <t>De website moet een intuïtieve en gebruiksvriendelijke interface hebben.</t>
   </si>
   <si>
     <t>De website moet goed functioneren op verschillende schermformaten, inclusief mobiele apparaten.</t>
@@ -268,28 +265,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -304,26 +301,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -417,13 +394,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -442,6 +412,33 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,18 +454,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CADA48E-40E3-470B-B094-DBA82996A5E7}" name="Tabel1" displayName="Tabel1" ref="B2:E19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:E19" xr:uid="{9CADA48E-40E3-470B-B094-DBA82996A5E7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CADA48E-40E3-470B-B094-DBA82996A5E7}" name="Tabel1" displayName="Tabel1" ref="B2:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:E18" xr:uid="{9CADA48E-40E3-470B-B094-DBA82996A5E7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F9CF4D2F-97BF-41E7-8B30-235B6FDB84E3}" name="Eis" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{77BE74D7-BC4B-4B95-AB7B-92D437A2B69E}" name="Functioneel (F) | Niet functioneel (NF)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CD8EC66F-2246-42A2-A423-BC6B4AF121C5}" name="Eigenaar" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C8319E6E-CB1E-449C-B70B-54D29E460D02}" name="Gevalideerd (Y/N)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9CF4D2F-97BF-41E7-8B30-235B6FDB84E3}" name="Eis" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{77BE74D7-BC4B-4B95-AB7B-92D437A2B69E}" name="Functioneel (F) | Niet functioneel (NF)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CD8EC66F-2246-42A2-A423-BC6B4AF121C5}" name="Eigenaar" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C8319E6E-CB1E-449C-B70B-54D29E460D02}" name="Gevalideerd (Y/N)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -771,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E8F0F-4D93-434C-8D4F-12AE86756DD9}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,16 +784,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -804,153 +801,153 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -958,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -972,13 +969,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -986,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1000,41 +997,27 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
